--- a/data/trans_dic/P21D_4_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Dificultad-trans_dic.xlsx
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.008959964988084986</v>
+        <v>0.007761150374171573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004762013095803181</v>
+        <v>0.00482600968789653</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.04634932841508626</v>
+        <v>0.04398480435588614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02452170022679626</v>
+        <v>0.02656671963338574</v>
       </c>
     </row>
     <row r="7">
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007756097021890207</v>
+        <v>0.006942893524012166</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004510767892604716</v>
+        <v>0.004867170372482285</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01321121164908837</v>
+        <v>0.01033300836590919</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02610421829484648</v>
+        <v>0.02559497524120146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01497038427036328</v>
+        <v>0.01472931247649374</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.004422225180371659</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.001864362611015745</v>
+        <v>0.001864362611015746</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.003103198127781872</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0007869210903247468</v>
+        <v>0.0007888108385374579</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01528579907662418</v>
+        <v>0.01619125341916244</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.008392272868895476</v>
+        <v>0.01122758936325261</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008470136669077189</v>
+        <v>0.009112535048292278</v>
       </c>
     </row>
     <row r="13">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0005511756663927135</v>
+        <v>0.0006493384384712969</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.005261420616615686</v>
+        <v>0.005453910546898815</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009999682939574499</v>
+        <v>0.01105820158446933</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.005115167950279162</v>
+        <v>0.00511226146172948</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.008497501615756785</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0054667596908302</v>
+        <v>0.005466759690830202</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0006397516586006012</v>
+        <v>0.0007455030863004955</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005237697329569456</v>
+        <v>0.005269427172519568</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003591976316518738</v>
+        <v>0.003709472476439706</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.005869663636114359</v>
+        <v>0.005952215581722675</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01335463975520893</v>
+        <v>0.01281565356388799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.008254077256084312</v>
+        <v>0.008460270424861993</v>
       </c>
     </row>
     <row r="19">
@@ -963,10 +963,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>2411</v>
+        <v>2088</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2222</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="7">
@@ -978,10 +978,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>12472</v>
+        <v>11835</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11441</v>
+        <v>12395</v>
       </c>
     </row>
     <row r="8">
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3718</v>
+        <v>3328</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3949</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="11">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5233</v>
+        <v>4093</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12513</v>
+        <v>12269</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>13106</v>
+        <v>12895</v>
       </c>
     </row>
     <row r="12">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6237</v>
+        <v>6606</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3646</v>
+        <v>4877</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7135</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>577</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2890</v>
+        <v>2996</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4979</v>
+        <v>5506</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5357</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>992</v>
+        <v>1156</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8803</v>
+        <v>8856</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11608</v>
+        <v>11988</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9103</v>
+        <v>9232</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22445</v>
+        <v>21539</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26674</v>
+        <v>27341</v>
       </c>
     </row>
     <row r="24">
